--- a/ElasticNet/results/shap_summary_sorted_AD.xlsx
+++ b/ElasticNet/results/shap_summary_sorted_AD.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B73"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,461 +448,461 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IAF_ORB_left</t>
+          <t>Alpha2_canon_RPD_CING_right</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>46.5134677211808</v>
+        <v>851.4568604013675</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Low_subj_spec_EPP_HPC_left</t>
+          <t>Low_subj_spec_RPD_OCC_left</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>44.94453044192164</v>
+        <v>627.974477118094</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>IAF_INS_right</t>
+          <t>Low_subj_spec_RPD_PARIET_left</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43.18171425827133</v>
+        <v>565.9422630380943</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Low_subj_spec_RPD_HPC_right</t>
+          <t>High_subj_spec_EPP_OCC_left</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42.6473484710751</v>
+        <v>487.0259570504547</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TF_INS_left</t>
+          <t>Alpha2_canon_RPD_CING_left</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>42.03287169233433</v>
+        <v>462.7804150016216</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Low_subj_spec_EPP_OCC_right</t>
+          <t>High_subj_spec_RPD_OCC_left</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>40.35061518999643</v>
+        <v>340.9163076964346</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TF_IFG_right</t>
+          <t>Low_subj_spec_RPD_HPC_right</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>38.43370037146552</v>
+        <v>338.9091035648679</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IAF_HPC_left</t>
+          <t>Low_subj_spec_EPP_OCC_right</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>36.96754202736433</v>
+        <v>334.9846779129991</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>TF_HPC_left</t>
+          <t>Alpha2_canon_EPP_PARIET_left</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33.91798187058266</v>
+        <v>321.9770595683402</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Alpha2_canon_RPD_PARIET_left</t>
+          <t>Low_subj_spec_RPD_HPC_left</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>33.42298899164401</v>
+        <v>279.0304070175154</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Alpha2_canon_EPP_PARIET_left</t>
+          <t>Low_subj_spec_RPD_CING_left</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>33.42016330050994</v>
+        <v>251.557180492946</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IAF_INS_left</t>
+          <t>Alpha2_canon_RPD_PARIET_left</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.80056952739017</v>
+        <v>249.9278930225476</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IAF_HPC_right</t>
+          <t>High_subj_spec_RPD_CING_left</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>31.78400103576683</v>
+        <v>248.8946940167144</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Low_subj_spec_RPD_HPC_left</t>
+          <t>IAF_ORB_left</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>30.56446501753821</v>
+        <v>237.6843159058668</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Low_subj_spec_EPP_OCC_left</t>
+          <t>Alpha2_canon_EPP_OCC_left</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>30.147427554323</v>
+        <v>235.5228994653095</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>TF_ORB_right</t>
+          <t>High_subj_spec_EPP_CING_left</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>27.25815627798019</v>
+        <v>193.8316082782247</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Low_subj_spec_RPD_PARIET_right</t>
+          <t>IAF_OCC_right</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>26.68896585634277</v>
+        <v>176.7924184082427</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Alpha2_canon_RPD_PARIET_right</t>
+          <t>Alpha2_canon_RPD_OCC_left</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>26.47307365579033</v>
+        <v>168.1669848636824</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Alpha2_canon_EPP_PARIET_right</t>
+          <t>IAF_INS_left</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>26.47076041223545</v>
+        <v>144.6460845357159</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>High_subj_spec_EPP_HPC_right</t>
+          <t>Alpha2_canon_EPP_PARIET_right</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>25.63547963668314</v>
+        <v>138.8961417077384</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>High_subj_spec_RPD_HPC_right</t>
+          <t>TF_IFG_right</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>25.63136917416235</v>
+        <v>128.6319789739044</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>TF_SFG_right</t>
+          <t>Low_subj_spec_RPD_PARIET_right</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>24.8198858447088</v>
+        <v>124.449176684612</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Alpha2_canon_EPP_OCC_right</t>
+          <t>High_subj_spec_RPD_HPC_right</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>24.35144357514111</v>
+        <v>120.9294018899323</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Alpha2_canon_RPD_OCC_right</t>
+          <t>IAF_INS_right</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.35036770900067</v>
+        <v>120.6326860053883</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Low_subj_spec_EPP_CING_left</t>
+          <t>IAF_ORB_right</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>24.33884213514956</v>
+        <v>114.6322958694519</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>High_subj_spec_EPP_HPC_left</t>
+          <t>Low_subj_spec_EPP_HPC_left</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>23.2485044153802</v>
+        <v>113.4582366003109</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>High_subj_spec_RPD_HPC_left</t>
+          <t>Alpha2_canon_RPD_PARIET_right</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>23.24553194084263</v>
+        <v>100.5163486549086</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Low_subj_spec_EPP_CING_right</t>
+          <t>Alpha2_canon_RPD_HPC_right</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>23.23789562248906</v>
+        <v>100.0422209203386</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Low_subj_spec_EPP_PARIET_right</t>
+          <t>High_subj_spec_EPP_HPC_right</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>23.21669514980251</v>
+        <v>92.4005591814558</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>High_subj_spec_EPP_PARIET_right</t>
+          <t>Alpha2_canon_RPD_OCC_right</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>22.05854421042672</v>
+        <v>86.90003607668035</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>High_subj_spec_RPD_PARIET_right</t>
+          <t>IAF_SFG_right</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>22.05372932451679</v>
+        <v>86.35959649427018</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Alpha2_canon_RPD_CING_left</t>
+          <t>Alpha2_canon_EPP_OCC_right</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.86783786838765</v>
+        <v>81.90057577811341</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Alpha2_canon_RPD_HPC_right</t>
+          <t>Alpha2_canon_EPP_HPC_right</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>18.06050169296076</v>
+        <v>80.15057978249023</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Alpha2_canon_EPP_HPC_right</t>
+          <t>High_subj_spec_EPP_OCC_right</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>18.05791451377436</v>
+        <v>68.16015779143615</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>IAF_OCC_right</t>
+          <t>IAF_HPC_right</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>17.56796433137635</v>
+        <v>63.06621842443388</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>IAF_OCC_left</t>
+          <t>IAF_IFG_right</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>17.47406517898096</v>
+        <v>62.90769390047719</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>High_subj_spec_RPD_CING_right</t>
+          <t>TF_INS_right</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>15.98472019573999</v>
+        <v>60.21140631422701</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>High_subj_spec_EPP_CING_right</t>
+          <t>Low_subj_spec_RPD_CING_right</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>15.98019820762891</v>
+        <v>55.22466718643508</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>IAF_SFG_right</t>
+          <t>High_subj_spec_RPD_OCC_right</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>15.30313092996241</v>
+        <v>54.65812226914927</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>IAF_IFG_left</t>
+          <t>IAF_OCC_left</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>15.00833647420894</v>
+        <v>42.84286801714212</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>TF_HPC_right</t>
+          <t>IAF_HPC_left</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>14.43907399718395</v>
+        <v>41.22241422423652</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>IAF_IFG_right</t>
+          <t>High_subj_spec_EPP_PARIET_left</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>14.03234782247909</v>
+        <v>34.4296109302369</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>TF_SFG_left</t>
+          <t>High_subj_spec_RPD_PARIET_left</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>13.53854764563561</v>
+        <v>29.29975923770213</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>High_subj_spec_RPD_OCC_right</t>
+          <t>High_subj_spec_RPD_PARIET_right</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>13.20501515409238</v>
+        <v>28.80603998140468</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>High_subj_spec_EPP_OCC_right</t>
+          <t>High_subj_spec_EPP_HPC_left</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>13.2010421779124</v>
+        <v>26.86898114536497</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>IAF_ORB_right</t>
+          <t>High_subj_spec_RPD_HPC_left</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>13.02047810784262</v>
+        <v>26.77081578589281</v>
       </c>
     </row>
     <row r="48">
@@ -912,257 +912,137 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>12.95714321100539</v>
+        <v>25.37593707839285</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Alpha2_canon_RPD_HPC_left</t>
+          <t>Alpha2_canon_EPP_HPC_left</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>12.16556276193289</v>
+        <v>18.96326539949205</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Alpha2_canon_EPP_HPC_left</t>
+          <t>High_subj_spec_EPP_PARIET_right</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>12.16330417368833</v>
+        <v>18.69451458730354</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Low_subj_spec_EPP_PARIET_left</t>
+          <t>Alpha2_canon_RPD_HPC_left</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>11.70675310306617</v>
+        <v>17.97263725983226</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>High_subj_spec_EPP_PARIET_left</t>
+          <t>Low_subj_spec_RPD_OCC_right</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>11.51800112295479</v>
+        <v>17.53084742445539</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>High_subj_spec_RPD_PARIET_left</t>
+          <t>IAF_MFG_left</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>11.51347545771368</v>
+        <v>16.70052763704271</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>IAF_SFG_left</t>
+          <t>TF_HPC_left</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>10.89848497479201</v>
+        <v>15.055509422835</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Low_subj_spec_RPD_CING_right</t>
+          <t>IAF_IFG_left</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>10.79911047664094</v>
+        <v>14.38601540654173</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Alpha2_canon_RPD_CING_right</t>
+          <t>TF_ORB_right</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>10.46462512441319</v>
+        <v>13.62899902703153</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Alpha2_canon_EPP_OCC_left</t>
+          <t>IAF_SFG_left</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>10.29541572192619</v>
+        <v>11.305814497174</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Alpha2_canon_RPD_OCC_left</t>
+          <t>High_subj_spec_EPP_CING_right</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>10.29386725735792</v>
+        <v>10.11947351320089</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>TF_MFG_right</t>
+          <t>TF_HPC_right</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>10.18432597438136</v>
+        <v>9.371201496013684</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Low_subj_spec_RPD_OCC_right</t>
+          <t>High_subj_spec_RPD_CING_right</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>8.98761413156774</v>
+        <v>9.158786871843628</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>High_subj_spec_EPP_CING_left</t>
+          <t>IAF_MFG_right</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>7.011772993208512</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>High_subj_spec_RPD_CING_left</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>7.007591234153438</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>TF_MFG_left</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>5.148258775276457</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>IAF_MFG_left</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>4.683940475928274</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Low_subj_spec_EPP_HPC_right</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>4.646563131761902</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>TF_IFG_left</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>3.332276503989626</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Low_subj_spec_RPD_PARIET_left</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>3.243056094062983</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Low_subj_spec_RPD_OCC_left</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>2.653699188016179</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>TF_INS_right</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>1.827282489986688</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>IAF_MFG_right</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>1.617262981719565</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Low_subj_spec_RPD_CING_left</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>0.9462926782928682</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>High_subj_spec_EPP_OCC_left</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>0.7319846040360646</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>High_subj_spec_RPD_OCC_left</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>0.7298561893058847</v>
+        <v>7.476196938868212</v>
       </c>
     </row>
   </sheetData>
